--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,17 +96,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,23 +256,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,23 +291,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,27 +467,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I6"/>
+  <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I6" sqref="I6:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9">
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
@@ -544,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9">
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
@@ -565,7 +531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9">
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -586,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:9" s="3" customFormat="1">
       <c r="C6" s="3">
         <v>1001</v>
       </c>
@@ -607,6 +573,75 @@
       </c>
       <c r="I6" s="3">
         <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>179</v>
+      </c>
+      <c r="I7" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>180</v>
+      </c>
+      <c r="I8" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>181</v>
+      </c>
+      <c r="I9" s="3">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -467,180 +467,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="3">
+        <v>178</v>
+      </c>
+      <c r="G4" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>179</v>
+      </c>
+      <c r="G5" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="F6" s="3">
+        <v>180</v>
+      </c>
+      <c r="G6" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9">
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" s="3" customFormat="1">
-      <c r="C6" s="3">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>178</v>
-      </c>
-      <c r="I6" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="3">
-        <v>1002</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
+      <c r="F7" s="3">
+        <v>181</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>179</v>
-      </c>
-      <c r="I7" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>180</v>
-      </c>
-      <c r="I8" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="3">
-        <v>1004</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3">
-        <v>181</v>
-      </c>
-      <c r="I9" s="3">
         <v>71</v>
       </c>
     </row>
